--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA4BA33-BBFA-4D6E-B146-E5A1D9F6529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="9708" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -328,7 +329,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -620,7 +621,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -711,6 +712,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -746,6 +764,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -921,11 +956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1301,7 +1336,7 @@
         <v>55</v>
       </c>
       <c r="E21" s="24">
-        <v>60</v>
+        <v>500</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="21"/>
@@ -1398,10 +1433,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA4BA33-BBFA-4D6E-B146-E5A1D9F6529E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E482AC7B-15E0-454C-BF66-1945DF692A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -236,10 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>RecordDate,CustNo,FacmNo,BormNo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>findRecordDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -324,6 +320,22 @@
   <si>
     <t xml:space="preserve">RecordDate &gt;= ,AND RecordDate &lt;= </t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>auto</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -957,10 +969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -980,10 +992,10 @@
       </c>
       <c r="B1" s="36"/>
       <c r="C1" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
@@ -1008,7 +1020,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="14" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="D3" s="15" t="s">
         <v>13</v>
@@ -1089,16 +1101,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="C9" s="25" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="18">
-        <v>8</v>
+        <v>77</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
@@ -1107,36 +1116,36 @@
       <c r="A10" s="18">
         <v>2</v>
       </c>
-      <c r="B10" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E10" s="24">
-        <v>7</v>
-      </c>
-      <c r="F10" s="26"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="18">
+        <v>8</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>3</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>52</v>
       </c>
       <c r="E11" s="24">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F11" s="26"/>
       <c r="G11" s="21"/>
@@ -1146,10 +1155,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>52</v>
@@ -1164,19 +1173,19 @@
       <c r="A13" s="18">
         <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="18">
-        <v>8</v>
-      </c>
-      <c r="F13" s="19"/>
+      <c r="B13" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" s="24">
+        <v>3</v>
+      </c>
+      <c r="F13" s="26"/>
       <c r="G13" s="21"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1184,10 +1193,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>26</v>
@@ -1196,225 +1205,244 @@
         <v>8</v>
       </c>
       <c r="F14" s="19"/>
-      <c r="G14" s="21" t="s">
-        <v>68</v>
-      </c>
+      <c r="G14" s="21"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>7</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E15" s="24">
-        <v>16</v>
-      </c>
-      <c r="F15" s="26">
-        <v>2</v>
-      </c>
-      <c r="G15" s="9"/>
+        <v>38</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="18">
+        <v>8</v>
+      </c>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>8</v>
       </c>
-      <c r="B16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="C16" s="32" t="s">
+      <c r="B16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="24">
         <v>16</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="26">
         <v>2</v>
       </c>
-      <c r="G16" s="21" t="s">
-        <v>67</v>
-      </c>
+      <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="18">
         <v>9</v>
       </c>
-      <c r="B17" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="24">
-        <v>20</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E17" s="33">
+        <v>16</v>
+      </c>
+      <c r="F17" s="34">
+        <v>2</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <v>10</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="24">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F18" s="26"/>
       <c r="G18" s="21"/>
     </row>
-    <row r="19" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="18">
         <v>11</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>46</v>
+      <c r="B19" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>45</v>
       </c>
       <c r="D19" s="24" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E19" s="24">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F19" s="26"/>
-      <c r="G19" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G19" s="21"/>
+    </row>
+    <row r="20" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
       <c r="A20" s="18">
         <v>12</v>
       </c>
-      <c r="B20" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>49</v>
+      <c r="B20" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>46</v>
       </c>
       <c r="D20" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E20" s="24">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F20" s="26"/>
-      <c r="G20" s="21"/>
+      <c r="G20" s="29" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="18">
         <v>13</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="24">
-        <v>500</v>
+        <v>10</v>
       </c>
       <c r="F21" s="26"/>
       <c r="G21" s="21"/>
     </row>
-    <row r="22" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="18">
         <v>14</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="28" t="s">
-        <v>28</v>
+      <c r="B22" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>50</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E22" s="24">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="F22" s="26"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="18">
         <v>15</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D23" s="24" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="E23" s="24">
-        <v>6</v>
-      </c>
-      <c r="F23" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="F23" s="26"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="18">
         <v>16</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D24" s="24" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="E24" s="24">
-        <v>8</v>
-      </c>
-      <c r="F24" s="26"/>
+        <v>6</v>
+      </c>
+      <c r="F24" s="6"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>17</v>
       </c>
       <c r="B25" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="24">
+        <v>8</v>
+      </c>
+      <c r="F25" s="26"/>
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>18</v>
+      </c>
+      <c r="B26" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C26" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D26" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E26" s="24">
         <v>6</v>
       </c>
-      <c r="G25" s="22"/>
+      <c r="G26" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1462,46 +1490,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E482AC7B-15E0-454C-BF66-1945DF692A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA27045E-96C2-4E86-AB23-512696C55CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -336,6 +336,18 @@
   <si>
     <t>LogNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND FacmNo &gt;= ,AND FacmNo &lt;= ,AND BormNo &gt;= ,AND BormNo &lt;= ,AND RepayDate &gt;= ,AND RepayDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogNo DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -971,7 +983,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -1462,11 +1474,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1532,6 +1544,17 @@
         <v>71</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA27045E-96C2-4E86-AB23-512696C55CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CBB15-AD8A-4C2B-8D94-B1F091B5430D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>LogNo DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxLogNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo &gt;</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -984,7 +992,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1474,11 +1482,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1555,6 +1563,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312CBB15-AD8A-4C2B-8D94-B1F091B5430D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BEE09-7694-453C-A0A7-6FB73D5AAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -355,6 +355,18 @@
   </si>
   <si>
     <t>CustNo &gt;</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoAndRecordDateFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND RecordDate &gt;= ,AND RecordDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecordDate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1482,11 +1494,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1574,6 +1586,17 @@
         <v>81</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F83BEE09-7694-453C-A0A7-6FB73D5AAD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDD5CBC-CF65-45E3-8623-AAC576E4E240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="90">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -367,6 +367,18 @@
   </si>
   <si>
     <t>RecordDate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNoAndActualRepayDateFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND ActualRepayDate &gt;= ,AND ActualRepayDate &lt;=</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActualRepayDate DESC,LogNo DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1494,11 +1506,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1597,6 +1609,17 @@
         <v>86</v>
       </c>
     </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L8-遵循法令作業/MlaundryRecord.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDD5CBC-CF65-45E3-8623-AAC576E4E240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{373E2554-23D8-4537-ACFB-1E56BA263450}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -131,10 +131,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -380,6 +376,9 @@
   <si>
     <t>ActualRepayDate DESC,LogNo DESC</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -556,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -578,10 +577,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -594,9 +593,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -608,9 +604,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -620,9 +613,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -646,9 +636,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -693,9 +680,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -733,9 +720,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,26 +755,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -820,26 +790,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1015,109 +968,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="18" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44" style="23" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.88671875" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="54.88671875" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="16" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44" style="20" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.88671875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="54.88671875" style="20" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E1" s="7"/>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36"/>
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="34"/>
+      <c r="C3" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="33"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1136,357 +1089,353 @@
       <c r="F8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="15" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C9" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="D9" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>77</v>
       </c>
       <c r="F9" s="6"/>
       <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="18">
+      <c r="A10" s="16">
         <v>2</v>
       </c>
-      <c r="B10" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="18" t="s">
+      <c r="B10" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="16">
         <v>8</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="18">
+      <c r="A11" s="16">
         <v>3</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C11" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E11" s="24">
+      <c r="D11" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="21">
         <v>7</v>
       </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="21"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="18">
+      <c r="A12" s="16">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E12" s="24">
+      <c r="D12" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="21">
         <v>3</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="21"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="18">
+      <c r="A13" s="16">
         <v>5</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="C13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E13" s="24">
+      <c r="D13" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="21">
         <v>3</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="21"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="18">
+      <c r="A14" s="16">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="25" t="s">
+      <c r="B14" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="16">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="16">
+        <v>7</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="C15" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E15" s="16">
         <v>8</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
-        <v>7</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="25" t="s">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="16">
+        <v>8</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="18">
-        <v>8</v>
-      </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="18">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
+      <c r="C16" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="21">
+        <v>16</v>
+      </c>
+      <c r="F16" s="23">
+        <v>2</v>
+      </c>
+      <c r="G16" s="9"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="16">
+        <v>9</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="29">
+        <v>16</v>
+      </c>
+      <c r="F17" s="30">
+        <v>2</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <v>10</v>
+      </c>
+      <c r="B18" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E16" s="24">
+      <c r="C18" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="21">
+        <v>20</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="16">
+        <v>11</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="21">
+        <v>30</v>
+      </c>
+      <c r="F19" s="23"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="16">
+        <v>12</v>
+      </c>
+      <c r="B20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" s="21">
+        <v>2</v>
+      </c>
+      <c r="F20" s="23"/>
+      <c r="G20" s="26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="16">
+        <v>13</v>
+      </c>
+      <c r="B21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="21">
+        <v>10</v>
+      </c>
+      <c r="F21" s="23"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="16">
+        <v>14</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="21">
+        <v>500</v>
+      </c>
+      <c r="F22" s="23"/>
+      <c r="G22" s="17"/>
+    </row>
+    <row r="23" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="16">
+        <v>15</v>
+      </c>
+      <c r="B23" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="16">
         <v>16</v>
       </c>
-      <c r="F16" s="26">
-        <v>2</v>
-      </c>
-      <c r="G16" s="9"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="18">
-        <v>9</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C17" s="32" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="33">
-        <v>16</v>
-      </c>
-      <c r="F17" s="34">
-        <v>2</v>
-      </c>
-      <c r="G17" s="21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
-        <v>10</v>
-      </c>
-      <c r="B18" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E18" s="24">
-        <v>20</v>
-      </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="21"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="18">
-        <v>11</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E19" s="24">
+      <c r="B24" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C24" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="21"/>
-    </row>
-    <row r="20" spans="1:7" ht="178.2" x14ac:dyDescent="0.3">
-      <c r="A20" s="18">
+      <c r="D24" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="E20" s="24">
-        <v>2</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="18">
-        <v>13</v>
-      </c>
-      <c r="B21" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" s="24">
-        <v>10</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="21"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="18">
-        <v>14</v>
-      </c>
-      <c r="B22" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="E22" s="24">
-        <v>500</v>
-      </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="21"/>
-    </row>
-    <row r="23" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18">
-        <v>15</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="24">
-        <v>8</v>
-      </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="4"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="18">
-        <v>16</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="24">
+      <c r="E24" s="21">
         <v>6</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>17</v>
       </c>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="24">
-        <v>8</v>
-      </c>
-      <c r="F25" s="26"/>
+      <c r="D25" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="4"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>18</v>
       </c>
-      <c r="B26" s="28" t="s">
+      <c r="B26" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="24">
+      <c r="E26" s="21">
         <v>6</v>
       </c>
-      <c r="G26" s="22"/>
+      <c r="G26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1508,7 +1457,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
@@ -1534,90 +1483,90 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>62</v>
+        <v>73</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>70</v>
+        <v>72</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>83</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
